--- a/biology/Botanique/Salix_balfouriana/Salix_balfouriana.xlsx
+++ b/biology/Botanique/Salix_balfouriana/Salix_balfouriana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix balfouriana est une espèce de plantes à fleurs de la famille des Salicaceae et du genre Salix. C'est un saule originaire de Chine.
 </t>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix balfouriana est un buisson ou un arbuste qui peut atteindre 5 m de haut. Ses jeunes branches sont d'un noir rougeâtre.  Les rameaux de deux ans sont à peine velus, voire chauves. Les feuilles, souvent courtes et couvertes de rouille, ont de fins pétioles velus qui mesurent de 1 à 1,5 cm de long.
-Le limbe va de 6 à 8 cm, et mesure rarement 12 cm de long et sa largeur va de 2 à 4 cm[1].
-La floraison a lieu en même temps que la pousse des feuilles, d'avril à mai. La fructification est mature en juin et juillet[1].
+Le limbe va de 6 à 8 cm, et mesure rarement 12 cm de long et sa largeur va de 2 à 4 cm.
+La floraison a lieu en même temps que la pousse des feuilles, d'avril à mai. La fructification est mature en juin et juillet.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce se rencontre à une altitude comprise entre 2 800 et 4 000 m, dans la province chinoise du Sichuan et au nord-ouest du Yunnan[1],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce se rencontre à une altitude comprise entre 2 800 et 4 000 m, dans la province chinoise du Sichuan et au nord-ouest du Yunnan,.
 </t>
         </is>
       </c>
